--- a/New folder/download.xlsx
+++ b/New folder/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOMESH CHATTERJEE\Downloads\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E94E5-07CB-445D-8A47-D270FCF5062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B6100-366B-4B06-8E05-385806A6CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>sno</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>new folder</t>
+  </si>
+  <si>
+    <t>new_branch</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +507,11 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -556,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -573,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -590,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
